--- a/Code/Results/Cases/Case_3_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.496786029765588</v>
+        <v>0.9146506000311661</v>
       </c>
       <c r="C2">
-        <v>0.7589297804520925</v>
+        <v>0.2517570627570933</v>
       </c>
       <c r="D2">
-        <v>0.1195741140470759</v>
+        <v>0.2206719225841596</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.024499311436116</v>
+        <v>1.510899119732557</v>
       </c>
       <c r="G2">
-        <v>0.7290256358910483</v>
+        <v>0.8619426395293885</v>
       </c>
       <c r="H2">
-        <v>0.478295366132059</v>
+        <v>0.8994347571257322</v>
       </c>
       <c r="I2">
-        <v>0.3324960514114395</v>
+        <v>0.6558943847060199</v>
       </c>
       <c r="J2">
-        <v>0.1311777277040775</v>
+        <v>0.2570088181630794</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7938468697580987</v>
+        <v>0.449619215129033</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.167088156978366</v>
+        <v>0.8163795911088414</v>
       </c>
       <c r="C3">
-        <v>0.6585050664060361</v>
+        <v>0.2220404484730238</v>
       </c>
       <c r="D3">
-        <v>0.1098833221565414</v>
+        <v>0.2188549481036191</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9589578927701439</v>
+        <v>1.509394915658518</v>
       </c>
       <c r="G3">
-        <v>0.6731346388620949</v>
+        <v>0.8580574676599326</v>
       </c>
       <c r="H3">
-        <v>0.4614828870948884</v>
+        <v>0.9037903686295152</v>
       </c>
       <c r="I3">
-        <v>0.3316989492856059</v>
+        <v>0.6634440360821685</v>
       </c>
       <c r="J3">
-        <v>0.1256764520075251</v>
+        <v>0.2577166705739913</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6906511306915633</v>
+        <v>0.4216201576306986</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.965505569284716</v>
+        <v>0.7560858235492844</v>
       </c>
       <c r="C4">
-        <v>0.5971700907492163</v>
+        <v>0.2037933306949355</v>
       </c>
       <c r="D4">
-        <v>0.1040184351548135</v>
+        <v>0.2177977916562455</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9214225453372933</v>
+        <v>1.509570063004972</v>
       </c>
       <c r="G4">
-        <v>0.6411385984629732</v>
+        <v>0.8564663236758889</v>
       </c>
       <c r="H4">
-        <v>0.4524701909188877</v>
+        <v>0.9070495324632333</v>
       </c>
       <c r="I4">
-        <v>0.332524703977473</v>
+        <v>0.6686095207763891</v>
       </c>
       <c r="J4">
-        <v>0.122578374611173</v>
+        <v>0.2582897348443254</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6277925851083523</v>
+        <v>0.4045764733676691</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.883524930679215</v>
+        <v>0.7315278501415605</v>
       </c>
       <c r="C5">
-        <v>0.5722401434786946</v>
+        <v>0.196357367823623</v>
       </c>
       <c r="D5">
-        <v>0.1016482608727287</v>
+        <v>0.2173817571725962</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9067597558158695</v>
+        <v>1.509917058924188</v>
       </c>
       <c r="G5">
-        <v>0.6286391659390205</v>
+        <v>0.8560168332202949</v>
       </c>
       <c r="H5">
-        <v>0.4491065182945135</v>
+        <v>0.9085244621660422</v>
       </c>
       <c r="I5">
-        <v>0.3331721858392989</v>
+        <v>0.6708473717683106</v>
       </c>
       <c r="J5">
-        <v>0.1213819604220348</v>
+        <v>0.2585580392976539</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6022854681464267</v>
+        <v>0.3976684166713866</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.869920772837304</v>
+        <v>0.7274507828384742</v>
       </c>
       <c r="C6">
-        <v>0.5681039568621884</v>
+        <v>0.1951226291052421</v>
       </c>
       <c r="D6">
-        <v>0.1012558464170183</v>
+        <v>0.2173135685864409</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9043619182376119</v>
+        <v>1.509991304826158</v>
       </c>
       <c r="G6">
-        <v>0.6265949653646601</v>
+        <v>0.8559541850861052</v>
       </c>
       <c r="H6">
-        <v>0.4485660789747783</v>
+        <v>0.9087782315531143</v>
       </c>
       <c r="I6">
-        <v>0.3332979287635958</v>
+        <v>0.6712269790398828</v>
       </c>
       <c r="J6">
-        <v>0.121187168234961</v>
+        <v>0.2586046904018815</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5980560526592811</v>
+        <v>0.3965236031235193</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.964399339744261</v>
+        <v>0.7557545754155512</v>
       </c>
       <c r="C7">
-        <v>0.596833637563833</v>
+        <v>0.2036930469755589</v>
       </c>
       <c r="D7">
-        <v>0.1039863920023976</v>
+        <v>0.2177921210025175</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9212222948591489</v>
+        <v>1.509573627616859</v>
       </c>
       <c r="G7">
-        <v>0.6409679001995698</v>
+        <v>0.8564594574094997</v>
       </c>
       <c r="H7">
-        <v>0.4524236018166476</v>
+        <v>0.9070688298668017</v>
       </c>
       <c r="I7">
-        <v>0.3325322021667461</v>
+        <v>0.6686391637381277</v>
       </c>
       <c r="J7">
-        <v>0.1225619772394353</v>
+        <v>0.2582932125320667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6274481724168552</v>
+        <v>0.4044831572606498</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.38289862343089</v>
+        <v>0.8807579162989327</v>
       </c>
       <c r="C8">
-        <v>0.724224686942847</v>
+        <v>0.2415110521550332</v>
       </c>
       <c r="D8">
-        <v>0.116214002342808</v>
+        <v>0.2200333296369763</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.001309068964886</v>
+        <v>1.510152022913005</v>
       </c>
       <c r="G8">
-        <v>0.709244939873571</v>
+        <v>0.8604376541126584</v>
       </c>
       <c r="H8">
-        <v>0.4722137829572546</v>
+        <v>0.900815039204943</v>
       </c>
       <c r="I8">
-        <v>0.3319359703098534</v>
+        <v>0.6583872745862998</v>
       </c>
       <c r="J8">
-        <v>0.1292201757544547</v>
+        <v>0.2572241303712346</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7581487890488248</v>
+        <v>0.4399345658039948</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.212766672443991</v>
+        <v>1.12621982919768</v>
       </c>
       <c r="C9">
-        <v>0.9774950511119016</v>
+        <v>0.3156621019641932</v>
       </c>
       <c r="D9">
-        <v>0.140950237098167</v>
+        <v>0.2248899687876929</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.182162820971243</v>
+        <v>1.520036616587689</v>
       </c>
       <c r="G9">
-        <v>0.8637233956827259</v>
+        <v>0.8745813624786791</v>
       </c>
       <c r="H9">
-        <v>0.5224127897098043</v>
+        <v>0.8932039334132043</v>
       </c>
       <c r="I9">
-        <v>0.3421606464049916</v>
+        <v>0.642506106533304</v>
       </c>
       <c r="J9">
-        <v>0.144704341693334</v>
+        <v>0.2562279817626347</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.019367990384218</v>
+        <v>0.510622880619735</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.831811512463332</v>
+        <v>1.306746066568905</v>
       </c>
       <c r="C10">
-        <v>1.167020188999231</v>
+        <v>0.3701379283293136</v>
       </c>
       <c r="D10">
-        <v>0.1597107755063263</v>
+        <v>0.2287370222664009</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.333070216125549</v>
+        <v>1.532681674975066</v>
       </c>
       <c r="G10">
-        <v>0.9930602207554671</v>
+        <v>0.8888966043161162</v>
       </c>
       <c r="H10">
-        <v>0.5677465770087906</v>
+        <v>0.8904666673672637</v>
       </c>
       <c r="I10">
-        <v>0.3580677866943489</v>
+        <v>0.6334371152161395</v>
       </c>
       <c r="J10">
-        <v>0.1578758666051669</v>
+        <v>0.2561698249073316</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.215690205249373</v>
+        <v>0.5632691966780214</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.116389027189712</v>
+        <v>1.388910436049741</v>
       </c>
       <c r="C11">
-        <v>1.254323260167382</v>
+        <v>0.3949208618375337</v>
       </c>
       <c r="D11">
-        <v>0.1684037840955028</v>
+        <v>0.2305472117321727</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.406509177866425</v>
+        <v>1.539613746467296</v>
       </c>
       <c r="G11">
-        <v>1.05615341628716</v>
+        <v>0.8962735084505624</v>
       </c>
       <c r="H11">
-        <v>0.5905792002242265</v>
+        <v>0.8898453000640671</v>
       </c>
       <c r="I11">
-        <v>0.3674854074735165</v>
+        <v>0.6298810390707104</v>
       </c>
       <c r="J11">
-        <v>0.1643357702333361</v>
+        <v>0.2562903211923953</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.30630826985238</v>
+        <v>0.5873742354146145</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.224663666438516</v>
+        <v>1.42002943852674</v>
       </c>
       <c r="C12">
-        <v>1.287569911597757</v>
+        <v>0.404305716606757</v>
       </c>
       <c r="D12">
-        <v>0.1717212590491783</v>
+        <v>0.2312412811324833</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.435088345603432</v>
+        <v>1.542409193915546</v>
       </c>
       <c r="G12">
-        <v>1.080733086870907</v>
+        <v>0.8991922734651894</v>
       </c>
       <c r="H12">
-        <v>0.5995779072543996</v>
+        <v>0.8897000241273645</v>
       </c>
       <c r="I12">
-        <v>0.3713986467873411</v>
+        <v>0.6286167682313462</v>
       </c>
       <c r="J12">
-        <v>0.166856516955626</v>
+        <v>0.2563571305825789</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.340843518639076</v>
+        <v>0.5965245201947198</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.201320613351584</v>
+        <v>1.41332719030612</v>
       </c>
       <c r="C13">
-        <v>1.280400817992529</v>
+        <v>0.4022845180568311</v>
       </c>
       <c r="D13">
-        <v>0.1710055944750053</v>
+        <v>0.2310914197587692</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.42889771933261</v>
+        <v>1.54179955237575</v>
       </c>
       <c r="G13">
-        <v>1.075407547319571</v>
+        <v>0.8985580779966824</v>
       </c>
       <c r="H13">
-        <v>0.5976236071990968</v>
+        <v>0.8897273030724051</v>
       </c>
       <c r="I13">
-        <v>0.3705398615857547</v>
+        <v>0.6288853823767369</v>
       </c>
       <c r="J13">
-        <v>0.1663101921157804</v>
+        <v>0.2563417992183332</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.333395402894581</v>
+        <v>0.5945528570658638</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.125286087108691</v>
+        <v>1.391470517273262</v>
       </c>
       <c r="C14">
-        <v>1.257054550484213</v>
+        <v>0.395692958324787</v>
       </c>
       <c r="D14">
-        <v>0.1686761842743323</v>
+        <v>0.2306041414185529</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.408844492122142</v>
+        <v>1.539840309657862</v>
       </c>
       <c r="G14">
-        <v>1.058161359390695</v>
+        <v>0.8965111206444334</v>
       </c>
       <c r="H14">
-        <v>0.5913122535365289</v>
+        <v>0.8898315421252789</v>
       </c>
       <c r="I14">
-        <v>0.3678001950104743</v>
+        <v>0.6297753739840388</v>
       </c>
       <c r="J14">
-        <v>0.1645416161891831</v>
+        <v>0.2562953928818814</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.309144899845691</v>
+        <v>0.5881265904469473</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.078781974252763</v>
+        <v>1.378083316458003</v>
       </c>
       <c r="C15">
-        <v>1.242779585398523</v>
+        <v>0.3916554462016961</v>
       </c>
       <c r="D15">
-        <v>0.1672527775522781</v>
+        <v>0.2303067862932409</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.396664043528247</v>
+        <v>1.538662433924387</v>
       </c>
       <c r="G15">
-        <v>1.047689493838575</v>
+        <v>0.8952736444413318</v>
       </c>
       <c r="H15">
-        <v>0.5874933613621209</v>
+        <v>0.8899071245435977</v>
       </c>
       <c r="I15">
-        <v>0.366168304418018</v>
+        <v>0.6303312557875245</v>
       </c>
       <c r="J15">
-        <v>0.1634682435101524</v>
+        <v>0.2562697273783385</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.294320434851059</v>
+        <v>0.5841932057795418</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.813280481859124</v>
+        <v>1.301377200118452</v>
       </c>
       <c r="C16">
-        <v>1.161339142882355</v>
+        <v>0.3685183259796077</v>
       </c>
       <c r="D16">
-        <v>0.1591460939411036</v>
+        <v>0.2286199273558225</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.328373908421966</v>
+        <v>1.532252453817392</v>
       </c>
       <c r="G16">
-        <v>0.9890288776068985</v>
+        <v>0.8884319883389225</v>
       </c>
       <c r="H16">
-        <v>0.5663017692400842</v>
+        <v>0.890519855239404</v>
       </c>
       <c r="I16">
-        <v>0.357498990583089</v>
+        <v>0.6336810105782362</v>
       </c>
       <c r="J16">
-        <v>0.1574637162625621</v>
+        <v>0.2561649113810134</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.209797107242437</v>
+        <v>0.5616969970901806</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.651222050272054</v>
+        <v>1.254330604519168</v>
       </c>
       <c r="C17">
-        <v>1.111677259215526</v>
+        <v>0.354324765657509</v>
       </c>
       <c r="D17">
-        <v>0.1542154677214569</v>
+        <v>0.2276004565765106</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.287761910759912</v>
+        <v>1.528622855461492</v>
       </c>
       <c r="G17">
-        <v>0.9541842193931274</v>
+        <v>0.884457018849389</v>
       </c>
       <c r="H17">
-        <v>0.5538910616359232</v>
+        <v>0.8910557479924677</v>
       </c>
       <c r="I17">
-        <v>0.3527620300811165</v>
+        <v>0.6358821482501682</v>
       </c>
       <c r="J17">
-        <v>0.1539049353210444</v>
+        <v>0.2561382825022136</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.158301945756506</v>
+        <v>0.5479361056786161</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.558284448551319</v>
+        <v>1.227274660974672</v>
       </c>
       <c r="C18">
-        <v>1.083213375516038</v>
+        <v>0.3461611641700983</v>
       </c>
       <c r="D18">
-        <v>0.1513942610294663</v>
+        <v>0.2270197486065939</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.264848587537045</v>
+        <v>1.526646205763285</v>
       </c>
       <c r="G18">
-        <v>0.9345382609224515</v>
+        <v>0.8822520676351644</v>
       </c>
       <c r="H18">
-        <v>0.5469584993184924</v>
+        <v>0.8914226780153882</v>
       </c>
       <c r="I18">
-        <v>0.3502405978753913</v>
+        <v>0.6372017570448989</v>
       </c>
       <c r="J18">
-        <v>0.1519016078197097</v>
+        <v>0.2561367951751095</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.128804522398298</v>
+        <v>0.5400358966005285</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.526862027928587</v>
+        <v>1.218114700875674</v>
       </c>
       <c r="C19">
-        <v>1.073592343740359</v>
+        <v>0.343397140495199</v>
       </c>
       <c r="D19">
-        <v>0.1504415030805006</v>
+        <v>0.2268241055830771</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.257164740233677</v>
+        <v>1.525995986870981</v>
       </c>
       <c r="G19">
-        <v>0.9279522725549043</v>
+        <v>0.881519451992105</v>
       </c>
       <c r="H19">
-        <v>0.5446455895330899</v>
+        <v>0.8915569861562886</v>
       </c>
       <c r="I19">
-        <v>0.3494208122555023</v>
+        <v>0.6376577413244178</v>
       </c>
       <c r="J19">
-        <v>0.151230593874601</v>
+        <v>0.2561386652475761</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.118837106715119</v>
+        <v>0.5373635509828887</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.668444494066023</v>
+        <v>1.259338386181867</v>
       </c>
       <c r="C20">
-        <v>1.116953257773844</v>
+        <v>0.3558356789285426</v>
       </c>
       <c r="D20">
-        <v>0.1547387944185772</v>
+        <v>0.2277083951408372</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.292038448702328</v>
+        <v>1.528997738796377</v>
       </c>
       <c r="G20">
-        <v>0.957852009690555</v>
+        <v>0.8848717353828164</v>
       </c>
       <c r="H20">
-        <v>0.5551906682825916</v>
+        <v>0.8909926239057739</v>
       </c>
       <c r="I20">
-        <v>0.3532450323608316</v>
+        <v>0.6356422855501904</v>
       </c>
       <c r="J20">
-        <v>0.1542792123658288</v>
+        <v>0.2561396856025908</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.163770926619506</v>
+        <v>0.5493994569777954</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.147604680732513</v>
+        <v>1.39789021965646</v>
       </c>
       <c r="C21">
-        <v>1.263906583980315</v>
+        <v>0.3976290576536599</v>
       </c>
       <c r="D21">
-        <v>0.169359669514435</v>
+        <v>0.2307470342157103</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.414713046319022</v>
+        <v>1.540411155350753</v>
       </c>
       <c r="G21">
-        <v>1.063207680580291</v>
+        <v>0.8971089538428743</v>
       </c>
       <c r="H21">
-        <v>0.5931561905767069</v>
+        <v>0.8897984788768269</v>
       </c>
       <c r="I21">
-        <v>0.3685952020539673</v>
+        <v>0.6295117236446259</v>
       </c>
       <c r="J21">
-        <v>0.1650590062679385</v>
+        <v>0.2563084483377196</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.316261616259155</v>
+        <v>0.5900135389687335</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.463789281258812</v>
+        <v>1.488471396760531</v>
       </c>
       <c r="C22">
-        <v>1.361054895819734</v>
+        <v>0.4249439455597326</v>
       </c>
       <c r="D22">
-        <v>0.1790660994089421</v>
+        <v>0.2327830024510007</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.499416262579899</v>
+        <v>1.548864195462428</v>
       </c>
       <c r="G22">
-        <v>1.136112589280771</v>
+        <v>0.9058374109048373</v>
       </c>
       <c r="H22">
-        <v>0.6200421662276767</v>
+        <v>0.8895429033086657</v>
       </c>
       <c r="I22">
-        <v>0.3806679172430734</v>
+        <v>0.6259851859963277</v>
       </c>
       <c r="J22">
-        <v>0.1725424773832671</v>
+        <v>0.2565422210220376</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.417223470251884</v>
+        <v>0.6166866734702268</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.294728673256259</v>
+        <v>1.440124110674276</v>
       </c>
       <c r="C23">
-        <v>1.309092874779196</v>
+        <v>0.4103654734738598</v>
       </c>
       <c r="D23">
-        <v>0.1738707957496359</v>
+        <v>0.2316918083075734</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.453765420217309</v>
+        <v>1.544261468163228</v>
       </c>
       <c r="G23">
-        <v>1.096804399746276</v>
+        <v>0.9011116998513131</v>
       </c>
       <c r="H23">
-        <v>0.6054904963829131</v>
+        <v>0.889631178451765</v>
       </c>
       <c r="I23">
-        <v>0.3740258703842727</v>
+        <v>0.6278232834672934</v>
       </c>
       <c r="J23">
-        <v>0.1685057323557047</v>
+        <v>0.2564061378738174</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.363207884940181</v>
+        <v>0.6024389357550888</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.660657511006377</v>
+        <v>1.25707439366181</v>
       </c>
       <c r="C24">
-        <v>1.114567708878837</v>
+        <v>0.3551526060452375</v>
       </c>
       <c r="D24">
-        <v>0.1545021566520006</v>
+        <v>0.2276595792944534</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.290103676788604</v>
+        <v>1.52882791127486</v>
       </c>
       <c r="G24">
-        <v>0.9561926028233216</v>
+        <v>0.884683991937095</v>
       </c>
       <c r="H24">
-        <v>0.5546024878950249</v>
+        <v>0.8910209790420396</v>
       </c>
       <c r="I24">
-        <v>0.3530260406040142</v>
+        <v>0.6357505588435615</v>
       </c>
       <c r="J24">
-        <v>0.1541098693638006</v>
+        <v>0.2561390082102619</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.161298066862784</v>
+        <v>0.548737841234896</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.986916020516503</v>
+        <v>1.059782226245147</v>
       </c>
       <c r="C25">
-        <v>0.9084778419177155</v>
+        <v>0.2956030416919475</v>
       </c>
       <c r="D25">
-        <v>0.1341650756214392</v>
+        <v>0.2235269639924411</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.130343750634054</v>
+        <v>1.516420790851441</v>
       </c>
       <c r="G25">
-        <v>0.8194067027758507</v>
+        <v>0.8700701873592607</v>
       </c>
       <c r="H25">
-        <v>0.5074655544185589</v>
+        <v>0.894762965086727</v>
       </c>
       <c r="I25">
-        <v>0.3380328875400949</v>
+        <v>0.6463477677836593</v>
       </c>
       <c r="J25">
-        <v>0.1402246916087151</v>
+        <v>0.2563793685274973</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9480373289365076</v>
+        <v>0.491374832376934</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_170/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9146506000311661</v>
+        <v>2.496786029765474</v>
       </c>
       <c r="C2">
-        <v>0.2517570627570933</v>
+        <v>0.7589297804519219</v>
       </c>
       <c r="D2">
-        <v>0.2206719225841596</v>
+        <v>0.119574114047019</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.510899119732557</v>
+        <v>1.024499311436116</v>
       </c>
       <c r="G2">
-        <v>0.8619426395293885</v>
+        <v>0.7290256358909772</v>
       </c>
       <c r="H2">
-        <v>0.8994347571257322</v>
+        <v>0.478295366132059</v>
       </c>
       <c r="I2">
-        <v>0.6558943847060199</v>
+        <v>0.3324960514114288</v>
       </c>
       <c r="J2">
-        <v>0.2570088181630794</v>
+        <v>0.1311777277041841</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.449619215129033</v>
+        <v>0.7938468697580916</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8163795911088414</v>
+        <v>2.16708815697848</v>
       </c>
       <c r="C3">
-        <v>0.2220404484730238</v>
+        <v>0.6585050664060361</v>
       </c>
       <c r="D3">
-        <v>0.2188549481036191</v>
+        <v>0.1098833221565343</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.509394915658518</v>
+        <v>0.9589578927701439</v>
       </c>
       <c r="G3">
-        <v>0.8580574676599326</v>
+        <v>0.6731346388621091</v>
       </c>
       <c r="H3">
-        <v>0.9037903686295152</v>
+        <v>0.4614828870949026</v>
       </c>
       <c r="I3">
-        <v>0.6634440360821685</v>
+        <v>0.3316989492856024</v>
       </c>
       <c r="J3">
-        <v>0.2577166705739913</v>
+        <v>0.1256764520074967</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4216201576306986</v>
+        <v>0.6906511306915561</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7560858235492844</v>
+        <v>1.965505569284716</v>
       </c>
       <c r="C4">
-        <v>0.2037933306949355</v>
+        <v>0.5971700907492732</v>
       </c>
       <c r="D4">
-        <v>0.2177977916562455</v>
+        <v>0.10401843515492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.509570063004972</v>
+        <v>0.9214225453372791</v>
       </c>
       <c r="G4">
-        <v>0.8564663236758889</v>
+        <v>0.6411385984629732</v>
       </c>
       <c r="H4">
-        <v>0.9070495324632333</v>
+        <v>0.4524701909188877</v>
       </c>
       <c r="I4">
-        <v>0.6686095207763891</v>
+        <v>0.3325247039774588</v>
       </c>
       <c r="J4">
-        <v>0.2582897348443254</v>
+        <v>0.122578374611173</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4045764733676691</v>
+        <v>0.6277925851083666</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7315278501415605</v>
+        <v>1.883524930679243</v>
       </c>
       <c r="C5">
-        <v>0.196357367823623</v>
+        <v>0.5722401434786946</v>
       </c>
       <c r="D5">
-        <v>0.2173817571725962</v>
+        <v>0.1016482608727642</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.509917058924188</v>
+        <v>0.9067597558158695</v>
       </c>
       <c r="G5">
-        <v>0.8560168332202949</v>
+        <v>0.6286391659390063</v>
       </c>
       <c r="H5">
-        <v>0.9085244621660422</v>
+        <v>0.4491065182944993</v>
       </c>
       <c r="I5">
-        <v>0.6708473717683106</v>
+        <v>0.3331721858392953</v>
       </c>
       <c r="J5">
-        <v>0.2585580392976539</v>
+        <v>0.1213819604220063</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3976684166713866</v>
+        <v>0.6022854681464267</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7274507828384742</v>
+        <v>1.869920772837361</v>
       </c>
       <c r="C6">
-        <v>0.1951226291052421</v>
+        <v>0.5681039568624158</v>
       </c>
       <c r="D6">
-        <v>0.2173135685864409</v>
+        <v>0.1012558464171747</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.509991304826158</v>
+        <v>0.9043619182376261</v>
       </c>
       <c r="G6">
-        <v>0.8559541850861052</v>
+        <v>0.6265949653646317</v>
       </c>
       <c r="H6">
-        <v>0.9087782315531143</v>
+        <v>0.4485660789747783</v>
       </c>
       <c r="I6">
-        <v>0.6712269790398828</v>
+        <v>0.3332979287635922</v>
       </c>
       <c r="J6">
-        <v>0.2586046904018815</v>
+        <v>0.1211871682350463</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3965236031235193</v>
+        <v>0.5980560526592811</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7557545754155512</v>
+        <v>1.964399339744261</v>
       </c>
       <c r="C7">
-        <v>0.2036930469755589</v>
+        <v>0.5968336375633214</v>
       </c>
       <c r="D7">
-        <v>0.2177921210025175</v>
+        <v>0.1039863920023336</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.509573627616859</v>
+        <v>0.9212222948591204</v>
       </c>
       <c r="G7">
-        <v>0.8564594574094997</v>
+        <v>0.640967900199513</v>
       </c>
       <c r="H7">
-        <v>0.9070688298668017</v>
+        <v>0.4524236018167471</v>
       </c>
       <c r="I7">
-        <v>0.6686391637381277</v>
+        <v>0.3325322021667354</v>
       </c>
       <c r="J7">
-        <v>0.2582932125320667</v>
+        <v>0.1225619772393287</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4044831572606498</v>
+        <v>0.6274481724168481</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8807579162989327</v>
+        <v>2.382898623430947</v>
       </c>
       <c r="C8">
-        <v>0.2415110521550332</v>
+        <v>0.7242246869428186</v>
       </c>
       <c r="D8">
-        <v>0.2200333296369763</v>
+        <v>0.1162140023429288</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.510152022913005</v>
+        <v>1.001309068964872</v>
       </c>
       <c r="G8">
-        <v>0.8604376541126584</v>
+        <v>0.709244939873571</v>
       </c>
       <c r="H8">
-        <v>0.900815039204943</v>
+        <v>0.4722137829572546</v>
       </c>
       <c r="I8">
-        <v>0.6583872745862998</v>
+        <v>0.331935970309857</v>
       </c>
       <c r="J8">
-        <v>0.2572241303712346</v>
+        <v>0.1292201757544476</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4399345658039948</v>
+        <v>0.7581487890488319</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.12621982919768</v>
+        <v>3.212766672444047</v>
       </c>
       <c r="C9">
-        <v>0.3156621019641932</v>
+        <v>0.9774950511118732</v>
       </c>
       <c r="D9">
-        <v>0.2248899687876929</v>
+        <v>0.1409502370982239</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.520036616587689</v>
+        <v>1.182162820971257</v>
       </c>
       <c r="G9">
-        <v>0.8745813624786791</v>
+        <v>0.8637233956827828</v>
       </c>
       <c r="H9">
-        <v>0.8932039334132043</v>
+        <v>0.5224127897096906</v>
       </c>
       <c r="I9">
-        <v>0.642506106533304</v>
+        <v>0.3421606464049773</v>
       </c>
       <c r="J9">
-        <v>0.2562279817626347</v>
+        <v>0.1447043416933127</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.510622880619735</v>
+        <v>1.019367990384247</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.306746066568905</v>
+        <v>3.831811512463332</v>
       </c>
       <c r="C10">
-        <v>0.3701379283293136</v>
+        <v>1.167020188999459</v>
       </c>
       <c r="D10">
-        <v>0.2287370222664009</v>
+        <v>0.1597107755062268</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.532681674975066</v>
+        <v>1.333070216125563</v>
       </c>
       <c r="G10">
-        <v>0.8888966043161162</v>
+        <v>0.9930602207554102</v>
       </c>
       <c r="H10">
-        <v>0.8904666673672637</v>
+        <v>0.5677465770088048</v>
       </c>
       <c r="I10">
-        <v>0.6334371152161395</v>
+        <v>0.3580677866943489</v>
       </c>
       <c r="J10">
-        <v>0.2561698249073316</v>
+        <v>0.1578758666051954</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5632691966780214</v>
+        <v>1.215690205249388</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.388910436049741</v>
+        <v>4.116389027189825</v>
       </c>
       <c r="C11">
-        <v>0.3949208618375337</v>
+        <v>1.254323260167553</v>
       </c>
       <c r="D11">
-        <v>0.2305472117321727</v>
+        <v>0.1684037840956876</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.539613746467296</v>
+        <v>1.406509177866425</v>
       </c>
       <c r="G11">
-        <v>0.8962735084505624</v>
+        <v>1.056153416287174</v>
       </c>
       <c r="H11">
-        <v>0.8898453000640671</v>
+        <v>0.5905792002242265</v>
       </c>
       <c r="I11">
-        <v>0.6298810390707104</v>
+        <v>0.3674854074735165</v>
       </c>
       <c r="J11">
-        <v>0.2562903211923953</v>
+        <v>0.1643357702333645</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5873742354146145</v>
+        <v>1.306308269852394</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.42002943852674</v>
+        <v>4.22466366643863</v>
       </c>
       <c r="C12">
-        <v>0.404305716606757</v>
+        <v>1.287569911597416</v>
       </c>
       <c r="D12">
-        <v>0.2312412811324833</v>
+        <v>0.1717212590491926</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.542409193915546</v>
+        <v>1.435088345603432</v>
       </c>
       <c r="G12">
-        <v>0.8991922734651894</v>
+        <v>1.080733086870993</v>
       </c>
       <c r="H12">
-        <v>0.8897000241273645</v>
+        <v>0.5995779072543996</v>
       </c>
       <c r="I12">
-        <v>0.6286167682313462</v>
+        <v>0.3713986467873482</v>
       </c>
       <c r="J12">
-        <v>0.2563571305825789</v>
+        <v>0.166856516955626</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5965245201947198</v>
+        <v>1.34084351863909</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.41332719030612</v>
+        <v>4.201320613351527</v>
       </c>
       <c r="C13">
-        <v>0.4022845180568311</v>
+        <v>1.28040081799287</v>
       </c>
       <c r="D13">
-        <v>0.2310914197587692</v>
+        <v>0.1710055944749911</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.54179955237575</v>
+        <v>1.42889771933261</v>
       </c>
       <c r="G13">
-        <v>0.8985580779966824</v>
+        <v>1.075407547319571</v>
       </c>
       <c r="H13">
-        <v>0.8897273030724051</v>
+        <v>0.5976236071990968</v>
       </c>
       <c r="I13">
-        <v>0.6288853823767369</v>
+        <v>0.3705398615857476</v>
       </c>
       <c r="J13">
-        <v>0.2563417992183332</v>
+        <v>0.166310192115823</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5945528570658638</v>
+        <v>1.333395402894581</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.391470517273262</v>
+        <v>4.125286087108577</v>
       </c>
       <c r="C14">
-        <v>0.395692958324787</v>
+        <v>1.257054550483815</v>
       </c>
       <c r="D14">
-        <v>0.2306041414185529</v>
+        <v>0.168676184274247</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.539840309657862</v>
+        <v>1.408844492122157</v>
       </c>
       <c r="G14">
-        <v>0.8965111206444334</v>
+        <v>1.058161359390695</v>
       </c>
       <c r="H14">
-        <v>0.8898315421252789</v>
+        <v>0.5913122535365289</v>
       </c>
       <c r="I14">
-        <v>0.6297753739840388</v>
+        <v>0.3678001950104814</v>
       </c>
       <c r="J14">
-        <v>0.2562953928818814</v>
+        <v>0.164541616189311</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5881265904469473</v>
+        <v>1.309144899845691</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.378083316458003</v>
+        <v>4.078781974252649</v>
       </c>
       <c r="C15">
-        <v>0.3916554462016961</v>
+        <v>1.242779585398353</v>
       </c>
       <c r="D15">
-        <v>0.2303067862932409</v>
+        <v>0.167252777552477</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.538662433924387</v>
+        <v>1.396664043528261</v>
       </c>
       <c r="G15">
-        <v>0.8952736444413318</v>
+        <v>1.047689493838533</v>
       </c>
       <c r="H15">
-        <v>0.8899071245435977</v>
+        <v>0.5874933613621067</v>
       </c>
       <c r="I15">
-        <v>0.6303312557875245</v>
+        <v>0.3661683044180251</v>
       </c>
       <c r="J15">
-        <v>0.2562697273783385</v>
+        <v>0.163468243510188</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5841932057795418</v>
+        <v>1.294320434851073</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.301377200118452</v>
+        <v>3.813280481859181</v>
       </c>
       <c r="C16">
-        <v>0.3685183259796077</v>
+        <v>1.161339142882241</v>
       </c>
       <c r="D16">
-        <v>0.2286199273558225</v>
+        <v>0.1591460939410041</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.532252453817392</v>
+        <v>1.328373908421966</v>
       </c>
       <c r="G16">
-        <v>0.8884319883389225</v>
+        <v>0.9890288776069127</v>
       </c>
       <c r="H16">
-        <v>0.890519855239404</v>
+        <v>0.5663017692400842</v>
       </c>
       <c r="I16">
-        <v>0.6336810105782362</v>
+        <v>0.357498990583089</v>
       </c>
       <c r="J16">
-        <v>0.2561649113810134</v>
+        <v>0.1574637162625692</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.5616969970901806</v>
+        <v>1.209797107242423</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.254330604519168</v>
+        <v>3.651222050271997</v>
       </c>
       <c r="C17">
-        <v>0.354324765657509</v>
+        <v>1.111677259215696</v>
       </c>
       <c r="D17">
-        <v>0.2276004565765106</v>
+        <v>0.1542154677216416</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.528622855461492</v>
+        <v>1.287761910759954</v>
       </c>
       <c r="G17">
-        <v>0.884457018849389</v>
+        <v>0.9541842193930989</v>
       </c>
       <c r="H17">
-        <v>0.8910557479924677</v>
+        <v>0.5538910616359232</v>
       </c>
       <c r="I17">
-        <v>0.6358821482501682</v>
+        <v>0.3527620300811094</v>
       </c>
       <c r="J17">
-        <v>0.2561382825022136</v>
+        <v>0.1539049353210871</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5479361056786161</v>
+        <v>1.158301945756492</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.227274660974672</v>
+        <v>3.558284448551376</v>
       </c>
       <c r="C18">
-        <v>0.3461611641700983</v>
+        <v>1.083213375515982</v>
       </c>
       <c r="D18">
-        <v>0.2270197486065939</v>
+        <v>0.1513942610295942</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.526646205763285</v>
+        <v>1.26484858753706</v>
       </c>
       <c r="G18">
-        <v>0.8822520676351644</v>
+        <v>0.9345382609224799</v>
       </c>
       <c r="H18">
-        <v>0.8914226780153882</v>
+        <v>0.5469584993184924</v>
       </c>
       <c r="I18">
-        <v>0.6372017570448989</v>
+        <v>0.35024059787537</v>
       </c>
       <c r="J18">
-        <v>0.2561367951751095</v>
+        <v>0.1519016078196529</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5400358966005285</v>
+        <v>1.128804522398283</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.218114700875674</v>
+        <v>3.526862027928473</v>
       </c>
       <c r="C19">
-        <v>0.343397140495199</v>
+        <v>1.073592343740415</v>
       </c>
       <c r="D19">
-        <v>0.2268241055830771</v>
+        <v>0.150441503080387</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.525995986870981</v>
+        <v>1.257164740233662</v>
       </c>
       <c r="G19">
-        <v>0.881519451992105</v>
+        <v>0.9279522725549896</v>
       </c>
       <c r="H19">
-        <v>0.8915569861562886</v>
+        <v>0.5446455895330757</v>
       </c>
       <c r="I19">
-        <v>0.6376577413244178</v>
+        <v>0.3494208122555449</v>
       </c>
       <c r="J19">
-        <v>0.2561386652475761</v>
+        <v>0.1512305938747076</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5373635509828887</v>
+        <v>1.118837106715105</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.259338386181867</v>
+        <v>3.668444494066193</v>
       </c>
       <c r="C20">
-        <v>0.3558356789285426</v>
+        <v>1.116953257774014</v>
       </c>
       <c r="D20">
-        <v>0.2277083951408372</v>
+        <v>0.1547387944187051</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.528997738796377</v>
+        <v>1.292038448702343</v>
       </c>
       <c r="G20">
-        <v>0.8848717353828164</v>
+        <v>0.9578520096905407</v>
       </c>
       <c r="H20">
-        <v>0.8909926239057739</v>
+        <v>0.5551906682825916</v>
       </c>
       <c r="I20">
-        <v>0.6356422855501904</v>
+        <v>0.3532450323608316</v>
       </c>
       <c r="J20">
-        <v>0.2561396856025908</v>
+        <v>0.1542792123657648</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5493994569777954</v>
+        <v>1.16377092661952</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.39789021965646</v>
+        <v>4.1476046807324</v>
       </c>
       <c r="C21">
-        <v>0.3976290576536599</v>
+        <v>1.263906583980031</v>
       </c>
       <c r="D21">
-        <v>0.2307470342157103</v>
+        <v>0.1693596695143924</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.540411155350753</v>
+        <v>1.414713046319022</v>
       </c>
       <c r="G21">
-        <v>0.8971089538428743</v>
+        <v>1.063207680580348</v>
       </c>
       <c r="H21">
-        <v>0.8897984788768269</v>
+        <v>0.5931561905768206</v>
       </c>
       <c r="I21">
-        <v>0.6295117236446259</v>
+        <v>0.3685952020539673</v>
       </c>
       <c r="J21">
-        <v>0.2563084483377196</v>
+        <v>0.1650590062678887</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5900135389687335</v>
+        <v>1.316261616259155</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.488471396760531</v>
+        <v>4.463789281258585</v>
       </c>
       <c r="C22">
-        <v>0.4249439455597326</v>
+        <v>1.361054895819564</v>
       </c>
       <c r="D22">
-        <v>0.2327830024510007</v>
+        <v>0.1790660994089279</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.548864195462428</v>
+        <v>1.499416262579913</v>
       </c>
       <c r="G22">
-        <v>0.9058374109048373</v>
+        <v>1.136112589280771</v>
       </c>
       <c r="H22">
-        <v>0.8895429033086657</v>
+        <v>0.6200421662276767</v>
       </c>
       <c r="I22">
-        <v>0.6259851859963277</v>
+        <v>0.3806679172430592</v>
       </c>
       <c r="J22">
-        <v>0.2565422210220376</v>
+        <v>0.1725424773832813</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.6166866734702268</v>
+        <v>1.417223470251869</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.440124110674276</v>
+        <v>4.294728673256145</v>
       </c>
       <c r="C23">
-        <v>0.4103654734738598</v>
+        <v>1.309092874779139</v>
       </c>
       <c r="D23">
-        <v>0.2316918083075734</v>
+        <v>0.1738707957496217</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.544261468163228</v>
+        <v>1.453765420217309</v>
       </c>
       <c r="G23">
-        <v>0.9011116998513131</v>
+        <v>1.096804399746361</v>
       </c>
       <c r="H23">
-        <v>0.889631178451765</v>
+        <v>0.6054904963826857</v>
       </c>
       <c r="I23">
-        <v>0.6278232834672934</v>
+        <v>0.3740258703842585</v>
       </c>
       <c r="J23">
-        <v>0.2564061378738174</v>
+        <v>0.1685057323556833</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.6024389357550888</v>
+        <v>1.363207884940195</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.25707439366181</v>
+        <v>3.660657511006377</v>
       </c>
       <c r="C24">
-        <v>0.3551526060452375</v>
+        <v>1.114567708878951</v>
       </c>
       <c r="D24">
-        <v>0.2276595792944534</v>
+        <v>0.1545021566519296</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.52882791127486</v>
+        <v>1.290103676788604</v>
       </c>
       <c r="G24">
-        <v>0.884683991937095</v>
+        <v>0.9561926028233216</v>
       </c>
       <c r="H24">
-        <v>0.8910209790420396</v>
+        <v>0.5546024878950249</v>
       </c>
       <c r="I24">
-        <v>0.6357505588435615</v>
+        <v>0.3530260406040142</v>
       </c>
       <c r="J24">
-        <v>0.2561390082102619</v>
+        <v>0.1541098693638361</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.548737841234896</v>
+        <v>1.161298066862784</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.059782226245147</v>
+        <v>2.986916020516503</v>
       </c>
       <c r="C25">
-        <v>0.2956030416919475</v>
+        <v>0.9084778419178008</v>
       </c>
       <c r="D25">
-        <v>0.2235269639924411</v>
+        <v>0.1341650756213681</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.516420790851441</v>
+        <v>1.130343750634054</v>
       </c>
       <c r="G25">
-        <v>0.8700701873592607</v>
+        <v>0.8194067027758649</v>
       </c>
       <c r="H25">
-        <v>0.894762965086727</v>
+        <v>0.5074655544185589</v>
       </c>
       <c r="I25">
-        <v>0.6463477677836593</v>
+        <v>0.3380328875401162</v>
       </c>
       <c r="J25">
-        <v>0.2563793685274973</v>
+        <v>0.1402246916086725</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.491374832376934</v>
+        <v>0.9480373289365076</v>
       </c>
       <c r="N25">
         <v>0</v>
